--- a/examples/ExampleEN.xlsx
+++ b/examples/ExampleEN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{8E6AE500-B3BE-4CE8-AC42-48E474B601C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{B424E958-019B-424E-8FF6-586086A79BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>ObjectType</t>
   </si>
@@ -145,6 +145,12 @@
     <t>o</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -175,6 +181,12 @@
     <t>EnumEN[]</t>
   </si>
   <si>
+    <t>map&lt;int32, string&gt;</t>
+  </si>
+  <si>
+    <t>map&lt;int32, ObjectEN&gt;</t>
+  </si>
+  <si>
     <t>unique_index=1</t>
   </si>
   <si>
@@ -232,6 +244,12 @@
     <t>EnumEN[] example</t>
   </si>
   <si>
+    <t>map&lt;int32, string&gt; example</t>
+  </si>
+  <si>
+    <t>map&lt;int32, ObjectEN&gt; example</t>
+  </si>
+  <si>
     <t>HelloWrold</t>
   </si>
   <si>
@@ -253,6 +271,12 @@
     <t>1,2</t>
   </si>
   <si>
+    <t>0: HelloWorld, 1: HAHAHAHAHA</t>
+  </si>
+  <si>
+    <t>0: {A: 1, B: HelloWorld}, 1: {A: 3, B: HAHAHAHAHA}</t>
+  </si>
+  <si>
     <t>HAHAHAHAHAHA</t>
   </si>
   <si>
@@ -272,6 +296,9 @@
   </si>
   <si>
     <t>A,B</t>
+  </si>
+  <si>
+    <t>0: {FieldA: 1, FieldB: HelloWorld}, 1: {FieldA: 3, FieldB: HAHAHAHAHA}</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
@@ -811,10 +838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,10 +862,12 @@
     <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="104.625" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="35.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="78.25" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -887,37 +916,43 @@
       <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -926,89 +961,101 @@
         <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1034,31 +1081,37 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1084,31 +1137,37 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1134,31 +1193,37 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1184,28 +1249,34 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExampleEN.xlsx
+++ b/examples/ExampleEN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{B424E958-019B-424E-8FF6-586086A79BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{464946AB-AA56-4265-83C1-7347E15861D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,8 +860,8 @@
     <col min="12" max="12" width="14.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="34.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="104.625" customWidth="1"/>
-    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="104.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="35.25" style="2" customWidth="1"/>
     <col min="18" max="18" width="78.25" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
@@ -1101,7 +1101,7 @@
       <c r="O5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -1157,7 +1157,7 @@
       <c r="O6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>88</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -1213,7 +1213,7 @@
       <c r="O7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -1269,7 +1269,7 @@
       <c r="O8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="Q8" s="2" t="s">
